--- a/AAII_Financials/Yearly/ZWS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZWS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>ZWS</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Long Term Investments</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Property Plant and Equipment</t>
@@ -305,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +662,142 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1433100</v>
+        <v>910900</v>
       </c>
       <c r="E8" s="3">
+        <v>562700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2068300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2050900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1851600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1712500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1923800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2050200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>881400</v>
+        <v>537700</v>
       </c>
       <c r="E9" s="3">
+        <v>309400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1250300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1266100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1145100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1086100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1258600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1304000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>551700</v>
+        <v>373200</v>
       </c>
       <c r="E10" s="3">
+        <v>253300</v>
+      </c>
+      <c r="F10" s="3">
         <v>818000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>784800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>706500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>626400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>665200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>746200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,35 +809,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27500</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F12" s="3">
         <v>40500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38800</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,63 +866,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14600</v>
+        <v>24100</v>
       </c>
       <c r="E14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>14500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>137200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>27000</v>
+        <v>23500</v>
       </c>
       <c r="E15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F15" s="3">
         <v>35400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>32200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>57400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>55100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +940,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1244700</v>
+        <v>824300</v>
       </c>
       <c r="E17" s="3">
+        <v>481700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1733000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1741000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1597100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1517100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1749500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1846500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>188400</v>
+        <v>86600</v>
       </c>
       <c r="E18" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F18" s="3">
         <v>335300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>309900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>254500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>195400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>174300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>203700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,143 +1014,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-40400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>258300</v>
+        <v>164600</v>
       </c>
       <c r="E21" s="3">
+        <v>145800</v>
+      </c>
+      <c r="F21" s="3">
         <v>381500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>346900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>301000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>292800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>308700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>36600</v>
+        <v>34700</v>
       </c>
       <c r="E22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F22" s="3">
         <v>58600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>69100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>88300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>91400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>87900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>154700</v>
+        <v>52400</v>
       </c>
       <c r="E23" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F23" s="3">
         <v>236300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>238800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>187100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>107300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>36300</v>
+        <v>2700</v>
       </c>
       <c r="E24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F24" s="3">
         <v>54100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>47400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1146,63 +1191,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>118400</v>
+        <v>49700</v>
       </c>
       <c r="E26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F26" s="3">
         <v>182200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>186100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>139700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>91700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>68900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>118200</v>
+        <v>50000</v>
       </c>
       <c r="E27" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F27" s="3">
         <v>167500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>166500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>84400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>69300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>91800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1227,36 +1281,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="E29" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-155400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-63700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-17600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1281,9 +1341,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1308,63 +1371,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>40400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>118200</v>
+        <v>120900</v>
       </c>
       <c r="E33" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F33" s="3">
         <v>165700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>66800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1389,68 +1461,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>118200</v>
+        <v>120900</v>
       </c>
       <c r="E35" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F35" s="3">
         <v>165700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>66800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,8 +1543,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1475,35 +1557,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E41" s="3">
         <v>255600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>573400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>292500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>490100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>484600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>370300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1528,335 +1614,374 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E43" s="3">
         <v>284600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>334700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>337600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>332200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>322900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>317600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>672000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E44" s="3">
         <v>330100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>317500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>316500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>304100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>314900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>327200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>367700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>56200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>474800</v>
+      </c>
+      <c r="E46" s="3">
         <v>907700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1264300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>982900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>997700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1178100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1176100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1127600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="3">
-        <v>27600</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>506100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>449900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>383000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>852900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>400900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>397200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>835200</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>506100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>449900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>383000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>852900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>397200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>835200</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="3">
+        <v>433200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1894700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1836100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1811200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1807000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1876800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1714700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1894700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1836100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1811200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1807000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1876800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1714700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1790000</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>92600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>76800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>82600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>338500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>83500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K52" s="3">
+        <v>84000</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>92600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>76800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>82600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>338500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>83500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>66800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>84000</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="3">
+        <v>1077700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3401100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3627100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3259700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3423700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3539300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3354800</v>
+      </c>
+      <c r="K54" s="3">
+        <v>3409300</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3401100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3627100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3259700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3423700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3539300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3354800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3409300</v>
-      </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1866,10 +1991,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1879,173 +2005,192 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>129400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>185600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>191700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>189900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>197800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>234100</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>129400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>185600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>191700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>189900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>197800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>234100</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>76400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>24300</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>76400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>16500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>24300</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>185700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>193500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>204100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>246000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>186000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>183400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>187500</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>185700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>193500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>204100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>246000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>186000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>183400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>187500</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>317500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>455500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>397000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>454200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>400300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>404400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>433000</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>317500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>455500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>397000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>454200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>404400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>433000</v>
-      </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1189200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1236800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1352100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1606200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1899900</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1915700</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="3">
-        <v>1189200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1397000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1236800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1352100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1606200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1899900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1915700</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>455100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>460900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>394900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>469600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>462200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>462500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>507900</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>455100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>460900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>394900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>469600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>462200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>462500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>507900</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C63" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D63" s="3">
         <v>0</v>
       </c>
@@ -2067,9 +2212,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2094,65 +2242,74 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="3">
+        <v>951300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1964800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2316100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2031100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2211000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2468700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2766200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2856400</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1964800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2316100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2031100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2211000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2468700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2766200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2856400</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2162,339 +2319,376 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="3">
+        <v>-1236900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>85900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>30700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>116000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>85900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>30700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-55500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-129600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-197500</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1436300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1228600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1070600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>588600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>552900</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>1436300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1311000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1228600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1212700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1070600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>588600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>552900</v>
-      </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>118200</v>
+        <v>120900</v>
       </c>
       <c r="E81" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F81" s="3">
         <v>165700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>66800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2504,199 +2698,221 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>86600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>92300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>89700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>105400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>112200</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>67000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>86600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>92300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>89700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>105400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>115400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>112200</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="3">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>196300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>298600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>258100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>228500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>195100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>245900</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C90" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D89" s="3">
-        <v>196300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>298600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>258100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>228500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>195100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>219000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>245900</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C90" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2706,118 +2922,131 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D92" s="3">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="3">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-122500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-208800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D94" s="3">
-        <v>-122500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-123100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-53300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-208800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-264000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-177300</v>
-      </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C95" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2827,195 +3056,217 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-23200</v>
       </c>
       <c r="G96" s="3">
         <v>-23200</v>
       </c>
       <c r="H96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="3">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="3">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99" s="3">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="3">
+        <v>-356200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-409600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>114900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>79900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-409600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>114900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-116700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-308800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>79900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-56300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>18000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>16600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C102" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D102" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-317800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>280900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-272500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>114300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZWS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZWS_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,142 +662,154 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1281800</v>
+      </c>
+      <c r="E8" s="3">
         <v>910900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>562700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2068300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2050900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1851600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1712500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1923800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2050200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>816300</v>
+      </c>
+      <c r="E9" s="3">
         <v>537700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>309400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1250300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1266100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1145100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1086100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1258600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1304000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>465500</v>
+      </c>
+      <c r="E10" s="3">
         <v>373200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>253300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>818000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>784800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>706500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>626400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>665200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>746200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,38 +822,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,69 +885,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E14" s="3">
         <v>24100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>137200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>23500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>32200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>57400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>55100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,68 +966,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1174700</v>
+      </c>
+      <c r="E17" s="3">
         <v>824300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>481700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1733000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1741000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1597100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1517100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1749500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1846500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E18" s="3">
         <v>86600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>335300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>309900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>254500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>195400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>174300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>203700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,158 +1047,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-40400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E21" s="3">
         <v>164600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>381500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>346900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>301000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>292800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>308700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E22" s="3">
         <v>34700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>69100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>88300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>91400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>87900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E23" s="3">
         <v>52400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>236300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>238800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>187100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>107300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>86000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>108600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,69 +1242,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E26" s="3">
         <v>49700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>182200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>186100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>139700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>91700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>68900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E27" s="3">
         <v>50000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>167500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>166500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>84400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1284,39 +1341,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E29" s="3">
         <v>70900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>83000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-155400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-63700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-17600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1344,9 +1407,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1374,69 +1440,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>40400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E33" s="3">
         <v>120900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>165700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>66800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1464,74 +1539,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E35" s="3">
         <v>120900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>165700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>66800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,8 +1628,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1558,38 +1643,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E41" s="3">
         <v>96600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>255600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>573400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>292500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>490100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>484600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>370300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1617,129 +1706,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E43" s="3">
         <v>177200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>284600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>334700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>337600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>332200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>322900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>317600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>672000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>366700</v>
+      </c>
+      <c r="E44" s="3">
         <v>184500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>330100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>317500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>316500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>304100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>314900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>327200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>367700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>56200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>757500</v>
+      </c>
+      <c r="E46" s="3">
         <v>474800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>907700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1264300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>982900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>997700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1178100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1176100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1127600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1765,71 +1869,80 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>27600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E48" s="3">
         <v>78500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>506100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>449900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>383000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>852900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>397200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>835200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1786700</v>
+      </c>
+      <c r="E49" s="3">
         <v>433200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1894700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1836100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1811200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1807000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1876800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1714700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1790000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1857,9 +1970,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1887,39 +2003,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E52" s="3">
         <v>91200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>92600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>338500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>83500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1947,39 +2069,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1077700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3401100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3627100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3259700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3423700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3539300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3354800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3409300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1992,8 +2120,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2006,188 +2135,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E57" s="3">
         <v>105100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>185600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>191700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>189900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>197800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>234100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E59" s="3">
         <v>129700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>185700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>193500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>204100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>246000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>183400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>187500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>289300</v>
+      </c>
+      <c r="E60" s="3">
         <v>240400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>317500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>455500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>397000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>454200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>404400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>433000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>530200</v>
+      </c>
+      <c r="E61" s="3">
         <v>533900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1189200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1397000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1236800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1352100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1606200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1899900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1915700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>429500</v>
+      </c>
+      <c r="E62" s="3">
         <v>177000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>455100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>460900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>394900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>469600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>462200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>462500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>507900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2215,9 +2363,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2245,9 +2396,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2275,39 +2429,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="E66" s="3">
         <v>951300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1964800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2316100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2031100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2211000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2468700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2766200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2856400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2320,8 +2480,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2349,9 +2510,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2379,9 +2543,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2409,9 +2576,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2439,39 +2609,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-1164900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1236900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>85900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-129600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-197500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2499,9 +2675,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2529,9 +2708,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2559,39 +2741,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="E76" s="3">
         <v>126400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1436300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1311000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1228600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1212700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1070600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>588600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>552900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2619,74 +2807,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E81" s="3">
         <v>120900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>165700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>66800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2699,38 +2896,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E83" s="3">
         <v>77500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>86600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>92300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>89700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>105400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>115400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2758,9 +2959,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2788,9 +2992,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2818,9 +3025,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2848,9 +3058,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2878,39 +3091,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E89" s="3">
         <v>223600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>196300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>298600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>258100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>228500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>195100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>219000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>245900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2923,38 +3142,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2982,9 +3205,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3012,39 +3238,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-123100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-53300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-208800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-264000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-177300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3057,38 +3289,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-36400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-23200</v>
       </c>
       <c r="H96" s="3">
         <v>-23200</v>
       </c>
       <c r="I96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-4400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3116,9 +3352,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3146,9 +3385,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3176,97 +3418,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-356200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-409600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>114900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-116700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-308800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>79900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-56300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-159000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-317800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>280900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>74900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-272500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>114300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
